--- a/SVDB file.xlsx
+++ b/SVDB file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38777A0-DB57-40B9-8CD5-D33A421E5041}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4631750-8483-4A62-8608-434280D1F546}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сольный исполнитель" sheetId="4" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Отсутствует</t>
   </si>
   <si>
-    <t>Barnacle Bay</t>
-  </si>
-  <si>
     <t>Aurora Skies</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Место</t>
   </si>
   <si>
-    <t>17.14.1995</t>
-  </si>
-  <si>
     <t>no bio</t>
   </si>
   <si>
@@ -75,12 +69,18 @@
   </si>
   <si>
     <t>Song_nam</t>
+  </si>
+  <si>
+    <t>Pounawea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,10 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,14 +518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF2409D-5C3D-4D4E-AEFD-7D9C308A46C7}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
@@ -538,50 +538,50 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16">
+        <v>35020</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="F2" s="17">
         <v>0.14652777777777778</v>
       </c>
       <c r="G2" s="5">
@@ -601,36 +601,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290AB4BF-C955-4BB8-A253-62D21B36E76B}">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16">
         <v>36537</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="16">
+        <v>15</v>
+      </c>
+      <c r="F2" s="17">
         <v>0.14722222222222223</v>
       </c>
       <c r="G2" s="5">
